--- a/Alan_Data_Entry_1.xlsx
+++ b/Alan_Data_Entry_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5cf7a5cd3f8c9d35/Desktop/PS res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alany\OneDrive\Documents\URAP_Electoral_Systems_Tolgahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AA7295-14EF-4118-83DC-BA214C88DB36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{14AA7295-14EF-4118-83DC-BA214C88DB36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{78D8CE12-AA0F-4E3B-8D6B-D56FAB759542}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{B59839D2-87AC-4957-8C0C-BC4993552AEB}"/>
   </bookViews>
@@ -738,9 +738,6 @@
     <t>Lrapuals, Gto</t>
   </si>
   <si>
-    <t>Silnpser</t>
-  </si>
-  <si>
     <t>Ramos Arizpe, Coahuila</t>
   </si>
   <si>
@@ -955,6 +952,9 @@
   </si>
   <si>
     <t>P12_Distrito_9</t>
+  </si>
+  <si>
+    <t>Simpser</t>
   </si>
 </sst>
 </file>
@@ -1310,9 +1310,9 @@
   <dimension ref="A1:BC92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AG1" sqref="AG1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
         <v>52</v>
@@ -1426,28 +1426,28 @@
         <v>55</v>
       </c>
       <c r="Y1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z1" t="s">
         <v>300</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>301</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>302</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>303</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>304</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>305</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>306</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>307</v>
       </c>
       <c r="AG1" t="s">
         <v>31</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1856,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -2019,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -2345,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -2834,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -2997,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -3160,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -3323,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -3649,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -3812,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -4138,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -4301,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -4464,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -4790,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -4953,7 +4953,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -5116,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -5279,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -5605,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -5931,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -6094,7 +6094,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F30" t="s">
         <v>137</v>
@@ -6257,7 +6257,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F32" t="s">
         <v>97</v>
@@ -6586,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F33" t="s">
         <v>97</v>
@@ -6749,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -6912,7 +6912,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F35" t="s">
         <v>163</v>
@@ -7075,7 +7075,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -7238,7 +7238,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -7401,7 +7401,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
@@ -7564,7 +7564,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" t="s">
         <v>175</v>
@@ -7730,7 +7730,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -7893,7 +7893,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
         <v>97</v>
@@ -8059,7 +8059,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -8222,7 +8222,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F43" t="s">
         <v>97</v>
@@ -8385,7 +8385,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F44" t="s">
         <v>97</v>
@@ -8548,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F45" t="s">
         <v>97</v>
@@ -8714,7 +8714,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -8877,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F47" t="s">
         <v>97</v>
@@ -9040,7 +9040,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -9203,7 +9203,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F49" t="s">
         <v>201</v>
@@ -9369,7 +9369,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F50" t="s">
         <v>105</v>
@@ -9535,7 +9535,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F51" t="s">
         <v>97</v>
@@ -9701,7 +9701,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" t="s">
         <v>97</v>
@@ -9864,7 +9864,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
         <v>97</v>
@@ -10027,7 +10027,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F54" t="s">
         <v>97</v>
@@ -10190,7 +10190,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F55" t="s">
         <v>217</v>
@@ -10353,7 +10353,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F56" t="s">
         <v>97</v>
@@ -11172,7 +11172,7 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -11206,19 +11206,19 @@
         <v>11</v>
       </c>
       <c r="N61" t="s">
+        <v>235</v>
+      </c>
+      <c r="O61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" t="s">
         <v>236</v>
-      </c>
-      <c r="O61" t="s">
-        <v>25</v>
-      </c>
-      <c r="P61" t="s">
-        <v>237</v>
       </c>
       <c r="Q61" t="s">
         <v>12</v>
       </c>
       <c r="R61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S61" t="s">
         <v>19</v>
@@ -11336,7 +11336,7 @@
         <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -11352,7 +11352,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I62" t="s">
         <v>8</v>
@@ -11370,19 +11370,19 @@
         <v>11</v>
       </c>
       <c r="N62" t="s">
+        <v>241</v>
+      </c>
+      <c r="O62" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" t="s">
         <v>242</v>
-      </c>
-      <c r="O62" t="s">
-        <v>25</v>
-      </c>
-      <c r="P62" t="s">
-        <v>243</v>
       </c>
       <c r="Q62" t="s">
         <v>12</v>
       </c>
       <c r="R62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S62" t="s">
         <v>15</v>
@@ -11500,7 +11500,7 @@
         <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -11534,19 +11534,19 @@
         <v>11</v>
       </c>
       <c r="N63" t="s">
+        <v>244</v>
+      </c>
+      <c r="O63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" t="s">
         <v>245</v>
-      </c>
-      <c r="O63" t="s">
-        <v>25</v>
-      </c>
-      <c r="P63" t="s">
-        <v>246</v>
       </c>
       <c r="Q63" t="s">
         <v>12</v>
       </c>
       <c r="R63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S63" t="s">
         <v>73</v>
@@ -11664,7 +11664,7 @@
         <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -11828,7 +11828,7 @@
         <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>11</v>
       </c>
       <c r="N65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O65" t="s">
         <v>25</v>
@@ -11992,7 +11992,7 @@
         <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -12032,13 +12032,13 @@
         <v>25</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q66" t="s">
         <v>12</v>
       </c>
       <c r="R66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S66" t="s">
         <v>82</v>
@@ -12156,7 +12156,7 @@
         <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -12190,19 +12190,19 @@
         <v>11</v>
       </c>
       <c r="N67" t="s">
+        <v>249</v>
+      </c>
+      <c r="O67" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" t="s">
         <v>250</v>
-      </c>
-      <c r="O67" t="s">
-        <v>25</v>
-      </c>
-      <c r="P67" t="s">
-        <v>251</v>
       </c>
       <c r="Q67" t="s">
         <v>12</v>
       </c>
       <c r="R67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S67" t="s">
         <v>15</v>
@@ -12320,7 +12320,7 @@
         <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -12354,19 +12354,19 @@
         <v>11</v>
       </c>
       <c r="N68" t="s">
+        <v>252</v>
+      </c>
+      <c r="O68" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" t="s">
         <v>253</v>
-      </c>
-      <c r="O68" t="s">
-        <v>25</v>
-      </c>
-      <c r="P68" t="s">
-        <v>254</v>
       </c>
       <c r="Q68" t="s">
         <v>12</v>
       </c>
       <c r="R68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S68" t="s">
         <v>73</v>
@@ -12484,7 +12484,7 @@
         <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -12518,19 +12518,19 @@
         <v>11</v>
       </c>
       <c r="N69" t="s">
+        <v>255</v>
+      </c>
+      <c r="O69" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" t="s">
         <v>256</v>
-      </c>
-      <c r="O69" t="s">
-        <v>25</v>
-      </c>
-      <c r="P69" t="s">
-        <v>257</v>
       </c>
       <c r="Q69" t="s">
         <v>12</v>
       </c>
       <c r="R69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S69" t="s">
         <v>19</v>
@@ -12539,7 +12539,7 @@
         <v>16</v>
       </c>
       <c r="U69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V69" t="s">
         <v>19</v>
@@ -12648,7 +12648,7 @@
         <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -12682,19 +12682,19 @@
         <v>11</v>
       </c>
       <c r="N70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O70" t="s">
         <v>25</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q70" t="s">
         <v>12</v>
       </c>
       <c r="R70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S70" t="s">
         <v>73</v>
@@ -12812,7 +12812,7 @@
         <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -12831,7 +12831,7 @@
         <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J71" t="s">
         <v>9</v>
@@ -12846,19 +12846,19 @@
         <v>11</v>
       </c>
       <c r="N71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O71" t="s">
         <v>25</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q71" t="s">
         <v>12</v>
       </c>
       <c r="R71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S71" t="s">
         <v>19</v>
@@ -12976,7 +12976,7 @@
         <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -13010,7 +13010,7 @@
         <v>11</v>
       </c>
       <c r="N72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O72" t="s">
         <v>25</v>
@@ -13022,7 +13022,7 @@
         <v>12</v>
       </c>
       <c r="R72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S72" t="s">
         <v>73</v>
@@ -13140,7 +13140,7 @@
         <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -13180,13 +13180,13 @@
         <v>25</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q73" t="s">
         <v>12</v>
       </c>
       <c r="R73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S73" t="s">
         <v>73</v>
@@ -13304,7 +13304,7 @@
         <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -13338,19 +13338,19 @@
         <v>11</v>
       </c>
       <c r="N74" t="s">
+        <v>265</v>
+      </c>
+      <c r="O74" t="s">
+        <v>25</v>
+      </c>
+      <c r="P74" t="s">
         <v>266</v>
-      </c>
-      <c r="O74" t="s">
-        <v>25</v>
-      </c>
-      <c r="P74" t="s">
-        <v>267</v>
       </c>
       <c r="Q74" t="s">
         <v>12</v>
       </c>
       <c r="R74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S74" t="s">
         <v>19</v>
@@ -13362,7 +13362,7 @@
         <v>73</v>
       </c>
       <c r="V74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W74" t="s">
         <v>20</v>
@@ -13468,7 +13468,7 @@
         <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -13484,7 +13484,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I75" t="s">
         <v>62</v>
@@ -13502,7 +13502,7 @@
         <v>11</v>
       </c>
       <c r="N75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O75" t="s">
         <v>25</v>
@@ -13632,7 +13632,7 @@
         <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -13648,7 +13648,7 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I76" t="s">
         <v>8</v>
@@ -13666,7 +13666,7 @@
         <v>11</v>
       </c>
       <c r="N76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O76" t="s">
         <v>25</v>
@@ -13678,7 +13678,7 @@
         <v>12</v>
       </c>
       <c r="R76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S76" t="s">
         <v>19</v>
@@ -13796,7 +13796,7 @@
         <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -13830,19 +13830,19 @@
         <v>11</v>
       </c>
       <c r="N77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O77" t="s">
         <v>25</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q77" t="s">
         <v>12</v>
       </c>
       <c r="R77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S77" t="s">
         <v>73</v>
@@ -13960,7 +13960,7 @@
         <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -13994,13 +13994,13 @@
         <v>11</v>
       </c>
       <c r="N78" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O78" t="s">
         <v>25</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q78" t="s">
         <v>12</v>
@@ -14124,7 +14124,7 @@
         <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -14158,19 +14158,19 @@
         <v>11</v>
       </c>
       <c r="N79" t="s">
+        <v>277</v>
+      </c>
+      <c r="O79" t="s">
+        <v>25</v>
+      </c>
+      <c r="P79" t="s">
         <v>278</v>
-      </c>
-      <c r="O79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P79" t="s">
-        <v>279</v>
       </c>
       <c r="Q79" t="s">
         <v>12</v>
       </c>
       <c r="R79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S79" t="s">
         <v>15</v>
@@ -14288,7 +14288,7 @@
         <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -14322,7 +14322,7 @@
         <v>11</v>
       </c>
       <c r="N80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O80" t="s">
         <v>25</v>
@@ -14334,7 +14334,7 @@
         <v>12</v>
       </c>
       <c r="R80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S80" t="s">
         <v>19</v>
@@ -14452,7 +14452,7 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -14498,7 +14498,7 @@
         <v>12</v>
       </c>
       <c r="R81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S81" t="s">
         <v>73</v>
@@ -14616,7 +14616,7 @@
         <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -14650,19 +14650,19 @@
         <v>11</v>
       </c>
       <c r="N82" t="s">
+        <v>282</v>
+      </c>
+      <c r="O82" t="s">
+        <v>25</v>
+      </c>
+      <c r="P82" t="s">
         <v>283</v>
-      </c>
-      <c r="O82" t="s">
-        <v>25</v>
-      </c>
-      <c r="P82" t="s">
-        <v>284</v>
       </c>
       <c r="Q82" t="s">
         <v>12</v>
       </c>
       <c r="R82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S82" t="s">
         <v>73</v>
@@ -14780,7 +14780,7 @@
         <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -14820,13 +14820,13 @@
         <v>25</v>
       </c>
       <c r="P83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q83" t="s">
         <v>12</v>
       </c>
       <c r="R83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S83" t="s">
         <v>15</v>
@@ -14939,7 +14939,7 @@
         <v>90000</v>
       </c>
       <c r="BC83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:55" x14ac:dyDescent="0.45">
@@ -14947,7 +14947,7 @@
         <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -14987,7 +14987,7 @@
         <v>25</v>
       </c>
       <c r="P84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q84" t="s">
         <v>12</v>
@@ -15111,7 +15111,7 @@
         <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -15157,7 +15157,7 @@
         <v>12</v>
       </c>
       <c r="R85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S85" t="s">
         <v>19</v>
@@ -15278,7 +15278,7 @@
         <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -15318,13 +15318,13 @@
         <v>25</v>
       </c>
       <c r="P86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q86" t="s">
         <v>12</v>
       </c>
       <c r="R86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S86" t="s">
         <v>19</v>
@@ -15442,7 +15442,7 @@
         <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -15461,7 +15461,7 @@
         <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J87" t="s">
         <v>9</v>
@@ -15476,13 +15476,13 @@
         <v>74</v>
       </c>
       <c r="N87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O87" t="s">
         <v>25</v>
       </c>
       <c r="P87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q87" t="s">
         <v>58</v>
@@ -15606,7 +15606,7 @@
         <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -15640,7 +15640,7 @@
         <v>11</v>
       </c>
       <c r="N88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O88" t="s">
         <v>25</v>
@@ -15652,7 +15652,7 @@
         <v>12</v>
       </c>
       <c r="R88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S88" t="s">
         <v>19</v>
@@ -15770,7 +15770,7 @@
         <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -15810,13 +15810,13 @@
         <v>25</v>
       </c>
       <c r="P89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q89" t="s">
         <v>12</v>
       </c>
       <c r="R89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S89" t="s">
         <v>73</v>
@@ -15937,7 +15937,7 @@
         <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -15971,19 +15971,19 @@
         <v>11</v>
       </c>
       <c r="N90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O90" t="s">
         <v>25</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q90" t="s">
         <v>12</v>
       </c>
       <c r="R90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S90" t="s">
         <v>19</v>
@@ -16101,7 +16101,7 @@
         <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -16120,7 +16120,7 @@
         <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J91" t="s">
         <v>83</v>
@@ -16141,13 +16141,13 @@
         <v>25</v>
       </c>
       <c r="P91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q91" t="s">
         <v>12</v>
       </c>
       <c r="R91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S91" t="s">
         <v>73</v>
